--- a/app/templates/BlockTemplate_EthereumGoerli.xlsx
+++ b/app/templates/BlockTemplate_EthereumGoerli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\EPUERP\code\BlockAtmGuard-github\blockatm-guard\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C9B453-117A-4DA3-93C8-AC076F9DDA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583E7BE-0A3B-4665-9124-430E222356A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:H723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H2" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2811,12 +2811,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"DAI,USDT,USDC,TUSD,BUSD,FRAX,USDP,PAXG,GUSD"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{472C87DD-7F7E-4166-801E-FD4CCADF99F0}">
       <formula1>"Ethereum Goerli"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{9AAD6165-155C-48DD-ABDC-2F5E78BC685B}">
+      <formula1>"DAI,USDT,USDC,TUSD,FRAX,USDJ,USDD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/app/templates/BlockTemplate_EthereumGoerli.xlsx
+++ b/app/templates/BlockTemplate_EthereumGoerli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\EPUERP\code\BlockAtmGuard-github\blockatm-guard\app\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\project\EPUERP\code\BlockAtmGuard-github\test_desktop_agent\app\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0583E7BE-0A3B-4665-9124-430E222356A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9BFCC6-CC35-4E62-9A39-CC0104762446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:H723"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H1:H1048576"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -2810,13 +2810,14 @@
       <formula>"dd-mm-yyyy h:mm "</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E3:E1048576" xr:uid="{472C87DD-7F7E-4166-801E-FD4CCADF99F0}">
       <formula1>"Ethereum Goerli"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{9AAD6165-155C-48DD-ABDC-2F5E78BC685B}">
-      <formula1>"DAI,USDT,USDC,TUSD,FRAX,USDJ,USDD"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1 H3:H1048576" xr:uid="{9AAD6165-155C-48DD-ABDC-2F5E78BC685B}">
+      <formula1>"DAI,USDT,USDC,TUSD,FRAX"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H2" xr:uid="{F5BD64F4-3A97-4791-B52E-9B0AC46723D1}"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
